--- a/业务总线矩阵、指标体系、配置表/物流实时指标体系.xlsx
+++ b/业务总线矩阵、指标体系、配置表/物流实时指标体系.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\物流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\物流\实时\业务总线矩阵、指标体系、配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CAD26-E91A-40A6-8F2A-07F51A4D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBEC155-45FC-48F9-BE87-9BF2BC22D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>业务过程</t>
   </si>
@@ -129,12 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">当日各班次运输次数 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各线路运输次数 </t>
-  </si>
-  <si>
     <t>班次分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,205 +145,333 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当日各类卡车货运里程</t>
+    <t>揽收分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派送分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日接单金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当日各类型货物下单数  </t>
+  </si>
+  <si>
+    <t>当日各类型货物下单金额</t>
+  </si>
+  <si>
+    <t>当日各类型货物运输里程数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当日各机构接收运单数  </t>
+  </si>
+  <si>
+    <t>当日各机构接收运单金额</t>
+  </si>
+  <si>
+    <t>当日各城市下单次数</t>
+  </si>
+  <si>
+    <t>当日各城市总运输时间</t>
+  </si>
+  <si>
+    <t>当日各城市平均每次运输时间</t>
+  </si>
+  <si>
+    <t>当日各城市平均每次运输里程数</t>
+  </si>
+  <si>
+    <t>当日各机构下单次数</t>
+  </si>
+  <si>
+    <t>当日各机构总运输时间</t>
+  </si>
+  <si>
+    <t>当日各机构平均每次运输时间</t>
+  </si>
+  <si>
+    <t>当日各机构平均每次运输里程数</t>
+  </si>
+  <si>
+    <t>当日各机构下单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各司机总运输时间</t>
+  </si>
+  <si>
+    <t>当日各司机平均每次运输时间</t>
+  </si>
+  <si>
+    <t>当日各司机平均每次运输里程数</t>
+  </si>
+  <si>
+    <t>当日各司机逾期次数</t>
+  </si>
+  <si>
+    <t>当日完成派送次数</t>
+  </si>
+  <si>
+    <t>当日各地区完成派送次数</t>
+  </si>
+  <si>
+    <t>当日各地区运单平均派送时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当日各转运站完成派送次数    </t>
+  </si>
+  <si>
+    <t>当日发单总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日运输中运单总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单综合统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日下单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日下单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各类型货物运输时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各城市运输里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各城市完成运输次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各机构运输里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各机构完成运输次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">当日各班次运输完成运单数   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各线路运输完成运单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各线路运输时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各线路运输次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各班次完成运输次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各班次运输时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各司机运输里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各司机运输次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各类卡车运输里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各类卡车完成运输次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各类卡车总运输时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各类卡车平均每次运输时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各类卡车平均每次运输里程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当日完成揽收次数</t>
-  </si>
-  <si>
-    <t>揽收分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派送分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日完成中转次数</t>
-  </si>
-  <si>
-    <t>中转分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日接单金额</t>
-  </si>
-  <si>
-    <t>当日发单总量</t>
-  </si>
-  <si>
-    <t>当日运输中运单总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日运单平均揽收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各地区完成揽收次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各地区运单平均揽收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各转运站完成揽收次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各转运站运单平均揽收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日运单平均派送时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日分拣次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各地区分拣次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各转运站分拣次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揽收(接单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count(distinct )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日运输*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count(distinct order_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(if(actual_end_time = cur_day, 1, 0))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(if(actual_start_time = cur_day, 1, 0))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当日新增运输任务数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当日完成运输任务数</t>
-  </si>
-  <si>
-    <t>当日里程数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各类型货物下单数  </t>
-  </si>
-  <si>
-    <t>当日各类型货物下单金额</t>
-  </si>
-  <si>
-    <t>当日各类型货物运输里程数</t>
-  </si>
-  <si>
-    <t>当日各类型货物累计运输时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各机构接收运单数  </t>
-  </si>
-  <si>
-    <t>当日各机构接收运单金额</t>
-  </si>
-  <si>
-    <t>当日各机构发车运输里程数</t>
-  </si>
-  <si>
-    <t>当日各机构发车运输时间</t>
-  </si>
-  <si>
-    <t>当日各城市下单次数</t>
-  </si>
-  <si>
-    <t>当日各城市货运里程</t>
-  </si>
-  <si>
-    <t>当日各城市货运次数</t>
-  </si>
-  <si>
-    <t>当日各城市总运输时间</t>
-  </si>
-  <si>
-    <t>当日各城市平均每次运输时间</t>
-  </si>
-  <si>
-    <t>当日各城市平均每次运输里程数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各城市里程数 </t>
-  </si>
-  <si>
-    <t>当日各机构下单次数</t>
-  </si>
-  <si>
-    <t>当日各机构货运里程</t>
-  </si>
-  <si>
-    <t>当日各机构货运次数</t>
-  </si>
-  <si>
-    <t>当日各机构总运输时间</t>
-  </si>
-  <si>
-    <t>当日各机构平均每次运输时间</t>
-  </si>
-  <si>
-    <t>当日各机构平均每次运输里程数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各机构里程数 </t>
-  </si>
-  <si>
-    <t>当日各机构下单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日各班次运输时长</t>
-  </si>
-  <si>
-    <t>当日各线路运输时长</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各线路运输单数    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各班次运输单数   </t>
-  </si>
-  <si>
-    <t>当日各司机货运里程</t>
-  </si>
-  <si>
-    <t>当日各司机货运次数</t>
-  </si>
-  <si>
-    <t>当日各司机总运输时间</t>
-  </si>
-  <si>
-    <t>当日各司机平均每次运输时间</t>
-  </si>
-  <si>
-    <t>当日各司机平均每次运输里程数</t>
-  </si>
-  <si>
-    <t>当日各司机逾期次数</t>
-  </si>
-  <si>
-    <t>当日各类卡车货运次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各类卡车总运输时间   </t>
-  </si>
-  <si>
-    <t>当日各类卡车平均每次运输时间</t>
-  </si>
-  <si>
-    <t>当日各类卡车平均每次运输里程数</t>
-  </si>
-  <si>
-    <t>当日运单平均揽收时间</t>
-  </si>
-  <si>
-    <t>当日各地区完成揽收次数</t>
-  </si>
-  <si>
-    <t>当日各地区运单平均揽收时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各转运站完成揽收次数    </t>
-  </si>
-  <si>
-    <t>当日完成派送次数</t>
-  </si>
-  <si>
-    <t>当日运单平均揽派送时间</t>
-  </si>
-  <si>
-    <t>当日各地区完成派送次数</t>
-  </si>
-  <si>
-    <t>当日各地区运单平均派送时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各转运站完成派送次数    </t>
-  </si>
-  <si>
-    <t>当日运单平均中转时间</t>
-  </si>
-  <si>
-    <t>当日各地区完成中转次数</t>
-  </si>
-  <si>
-    <t>当日各地区运单平均中转时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当日各转运站完成中转次数    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日运输里程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actual_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日运输时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各机构运输里程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日各机构运输时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +502,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,31 +797,37 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE963CDF-67DB-436A-AFE7-0F4EF0523338}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1097,47 +1239,47 @@
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="15.109375" customWidth="1"/>
     <col min="10" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1147,373 +1289,573 @@
       <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="E11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="11"/>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="C22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -1521,121 +1863,121 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
       <c r="C30" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="24"/>
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="12" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -1643,48 +1985,48 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="12" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="19"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="B37" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
       <c r="C37" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -1693,11 +2035,11 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="16" t="s">
         <v>70</v>
       </c>
@@ -1711,25 +2053,25 @@
       <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="24"/>
       <c r="C40" s="14" t="s">
         <v>68</v>
       </c>
@@ -1740,13 +2082,13 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -1755,30 +2097,30 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="22"/>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1790,55 +2132,55 @@
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="7"/>
@@ -1850,27 +2192,27 @@
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="18" t="s">
-        <v>77</v>
+      <c r="A49" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -1882,10 +2224,10 @@
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -1894,28 +2236,28 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="10"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="10" t="s">
-        <v>79</v>
+      <c r="A51" s="27"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="7"/>
@@ -1927,29 +2269,29 @@
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C54" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -1961,55 +2303,55 @@
       <c r="K54" s="7"/>
     </row>
     <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="7"/>
@@ -2021,12 +2363,10 @@
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="A59" s="27"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="7"/>
@@ -2038,25 +2378,27 @@
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="C60" s="9" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -2068,57 +2410,55 @@
       <c r="K61" s="7"/>
     </row>
     <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
     <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="A65" s="27"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="7"/>
@@ -2130,10 +2470,12 @@
       <c r="K65" s="7"/>
     </row>
     <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="C66" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="7"/>
@@ -2145,25 +2487,25 @@
       <c r="K66" s="7"/>
     </row>
     <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
     </row>
     <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -2174,44 +2516,14 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="A53:A70"/>
+  <mergeCells count="31">
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A3:K4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A5:A12"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
@@ -2220,22 +2532,23 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A23:A36"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
